--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
@@ -196,7 +196,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -566,7 +567,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -658,28 +659,26 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +757,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma 11" xfId="1"/>
@@ -1104,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1129,203 +1133,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="41" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="50.1" customHeight="1">
-      <c r="L2" s="48"/>
-      <c r="M2" s="74" t="s">
+      <c r="L2" s="42"/>
+      <c r="M2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="35"/>
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
     </row>
     <row r="4" spans="1:23" ht="20.25">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="36"/>
       <c r="S4" s="36"/>
       <c r="T4" s="36"/>
     </row>
     <row r="5" spans="1:23" ht="18.75">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="77"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="77"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="75"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="37"/>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
     </row>
     <row r="6" spans="1:23" ht="19.5">
-      <c r="A6" s="78" t="s">
+      <c r="A6" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="78"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="38"/>
       <c r="S6" s="38"/>
       <c r="T6" s="38"/>
     </row>
     <row r="7" spans="1:23" ht="19.5">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
-      <c r="O7" s="78"/>
-      <c r="P7" s="78"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="38"/>
       <c r="S7" s="38"/>
       <c r="T7" s="38"/>
     </row>
     <row r="8" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="53"/>
-      <c r="P8" s="53"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="39"/>
       <c r="S8" s="39"/>
       <c r="T8" s="39"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="55"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="57" t="s">
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="58"/>
-      <c r="L9" s="59"/>
-      <c r="M9" s="57" t="s">
+      <c r="K9" s="56"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="58"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="66" t="s">
+      <c r="Q9" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="67"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="68"/>
-      <c r="U9" s="73" t="s">
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="66"/>
+      <c r="U9" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="63" t="s">
+      <c r="V9" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="65" t="s">
+      <c r="W9" s="63" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A10" s="72"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1353,7 +1357,7 @@
       <c r="O10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="61"/>
+      <c r="P10" s="59"/>
       <c r="Q10" s="12" t="s">
         <v>22</v>
       </c>
@@ -1366,9 +1370,9 @@
       <c r="T10" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="61"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="65"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="63"/>
     </row>
     <row r="11" spans="1:23" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="s">
@@ -1398,40 +1402,40 @@
       <c r="I11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="42" t="s">
+      <c r="J11" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="42" t="s">
+      <c r="L11" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="42" t="s">
+      <c r="M11" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="42" t="s">
+      <c r="O11" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="47" t="s">
         <v>48</v>
       </c>
       <c r="Q11" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="41" t="s">
+      <c r="S11" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="43" t="s">
+      <c r="U11" s="47" t="s">
         <v>49</v>
       </c>
       <c r="V11" s="26" t="s">
@@ -1451,75 +1455,75 @@
       <c r="G12" s="30"/>
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
-      <c r="O12" s="49"/>
-      <c r="P12" s="46"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="49"/>
       <c r="Q12" s="31"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="46"/>
+      <c r="R12" s="78"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="49"/>
       <c r="V12" s="15"/>
       <c r="W12" s="14"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="32">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="50">
         <f t="shared" ref="J13:P13" si="0">SUM(J11:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="32">
+      <c r="P13" s="50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q13" s="32"/>
-      <c r="R13" s="32">
+      <c r="R13" s="50">
         <f>SUM(R11:R12)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="32">
+      <c r="S13" s="50">
         <f>SUM(S11:S12)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="50">
         <f>SUM(T11:T12)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="32">
+      <c r="U13" s="50">
         <f>SUM(U11:U12)</f>
         <v>0</v>
       </c>
@@ -1527,39 +1531,39 @@
       <c r="W13" s="13"/>
     </row>
     <row r="14" spans="1:23" ht="15.75">
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:23" ht="15.75">
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:23" ht="15.75">
-      <c r="N16" s="51"/>
-      <c r="O16" s="51"/>
-      <c r="P16" s="51"/>
+      <c r="N16" s="44"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="44"/>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="14:17" ht="15.75">
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
+      <c r="N17" s="44"/>
+      <c r="O17" s="44"/>
+      <c r="P17" s="44"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="14:17" ht="15.75">
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="14:17" ht="15.75">
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
       <c r="Q19" s="11"/>
     </row>
   </sheetData>
@@ -1593,6 +1597,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002A5CA081AA03014D8863EFE0B1B9EF3A" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edb9dd2956c3890b35d87d37ac778bb0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="41733dd2-07dd-4b83-9c00-dc1590a38c6d" xmlns:ns3="26469b81-5639-404a-a4db-d68c46bc65bf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c7b98c7a72137f7ed2cb8e1ee5f1d1b" ns2:_="" ns3:_="">
     <xsd:import namespace="41733dd2-07dd-4b83-9c00-dc1590a38c6d"/>
@@ -1795,16 +1808,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE10460-D6AA-4897-8EBD-6EA94D1AC40D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970E0757-8A16-4279-93C1-8DDDD52CCC3E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1821,12 +1833,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1FE10460-D6AA-4897-8EBD-6EA94D1AC40D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
@@ -567,12 +567,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -608,17 +605,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -630,9 +621,6 @@
     <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -679,6 +667,68 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -688,9 +738,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,65 +750,15 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="37" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma 11" xfId="1"/>
@@ -1109,7 +1106,7 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="H25" sqref="G23:H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1122,458 +1119,460 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="16" width="20" style="34" customWidth="1"/>
+    <col min="10" max="16" width="20" style="30" customWidth="1"/>
     <col min="17" max="17" width="35.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="13" style="34" customWidth="1"/>
-    <col min="20" max="20" width="20" style="34" customWidth="1"/>
-    <col min="21" max="21" width="22" style="34" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="13" style="30" customWidth="1"/>
+    <col min="20" max="20" width="20" style="30" customWidth="1"/>
+    <col min="21" max="21" width="22" style="30" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25">
-      <c r="M1" s="41" t="s">
+      <c r="M1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="50.1" customHeight="1">
-      <c r="L2" s="42"/>
-      <c r="M2" s="72" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="4" spans="1:23" ht="20.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:23" ht="18.75">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" spans="1:23" ht="19.5">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:23" ht="19.5">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="71"/>
+      <c r="I9" s="63"/>
+      <c r="J9" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="55" t="s">
+      <c r="K9" s="73"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58" t="s">
+      <c r="N9" s="73"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="71" t="s">
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="61" t="s">
+      <c r="V9" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="63" t="s">
+      <c r="W9" s="57" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="2" t="s">
+      <c r="A10" s="66"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="12" t="s">
+      <c r="P10" s="68"/>
+      <c r="Q10" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="59"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="63"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="57"/>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:23" s="2" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="77" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="R11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="S11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="14"/>
+    <row r="12" spans="1:23" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="45"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="13"/>
     </row>
     <row r="13" spans="1:23" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="50">
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="46">
         <f t="shared" ref="J13:P13" si="0">SUM(J11:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="50">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="46">
         <f>SUM(R11:R12)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="50">
+      <c r="S13" s="46">
         <f>SUM(S11:S12)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="46">
         <f>SUM(T11:T12)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="46">
         <f>SUM(U11:U12)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="15.75">
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="9"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
+      <c r="Q14" s="8"/>
     </row>
     <row r="15" spans="1:23" ht="15.75">
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="10"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:23" ht="15.75">
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="10"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="14:17" ht="15.75">
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="10"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" spans="14:17" ht="15.75">
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="11"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="14:17" ht="15.75">
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="11"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:W10"/>
   <mergeCells count="21">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A8:P8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="P9:P10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
     <mergeCell ref="V9:V10"/>
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="Q9:T9"/>
@@ -1583,13 +1582,11 @@
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="U9:U10"/>
-    <mergeCell ref="A8:P8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="P9:P10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>INDO TRANS LOGISTICS CORPORATION</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>{FreightTotal}</t>
+  </si>
+  <si>
+    <t>{ServiceDate}</t>
+  </si>
+  <si>
+    <t>Service Date</t>
   </si>
 </sst>
 </file>
@@ -567,7 +573,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -623,7 +629,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -679,6 +684,17 @@
     <xf numFmtId="41" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,7 +731,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -757,11 +773,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Comma 11" xfId="1"/>
@@ -1106,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1122,214 +1133,218 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="16" width="20" style="34" customWidth="1"/>
+    <col min="10" max="16" width="20" style="33" customWidth="1"/>
     <col min="17" max="17" width="35.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="34" customWidth="1"/>
-    <col min="19" max="19" width="13" style="34" customWidth="1"/>
-    <col min="20" max="20" width="20" style="34" customWidth="1"/>
-    <col min="21" max="21" width="22" style="34" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="13" style="33" customWidth="1"/>
+    <col min="20" max="20" width="20" style="33" customWidth="1"/>
+    <col min="21" max="21" width="22" style="33" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
+    <col min="24" max="24" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="20.25">
-      <c r="M1" s="41" t="s">
+    <row r="1" spans="1:24" ht="20.25">
+      <c r="M1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="50.1" customHeight="1">
-      <c r="L2" s="42"/>
-      <c r="M2" s="72" t="s">
+    <row r="2" spans="1:24" ht="50.1" customHeight="1">
+      <c r="L2" s="41"/>
+      <c r="M2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="72"/>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
-    <row r="4" spans="1:23" ht="20.25">
-      <c r="A4" s="73" t="s">
+    <row r="4" spans="1:24" ht="20.25">
+      <c r="A4" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
     </row>
-    <row r="5" spans="1:23" ht="18.75">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:24" ht="18.75">
+      <c r="A5" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
+      <c r="N5" s="81"/>
+      <c r="O5" s="81"/>
+      <c r="P5" s="81"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
     </row>
-    <row r="6" spans="1:23" ht="19.5">
-      <c r="A6" s="76" t="s">
+    <row r="6" spans="1:24" ht="19.5">
+      <c r="A6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="76"/>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
+      <c r="P6" s="82"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
     </row>
-    <row r="7" spans="1:23" ht="19.5">
-      <c r="A7" s="76" t="s">
+    <row r="7" spans="1:24" ht="19.5">
+      <c r="A7" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="82"/>
+      <c r="O7" s="82"/>
+      <c r="P7" s="82"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
     </row>
-    <row r="8" spans="1:23" ht="13.5" thickBot="1">
-      <c r="A8" s="51" t="s">
+    <row r="8" spans="1:24" ht="13.5" thickBot="1">
+      <c r="A8" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="39"/>
-      <c r="S8" s="39"/>
-      <c r="T8" s="39"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:24" s="1" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A9" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="52" t="s">
+      <c r="G9" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="55" t="s">
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="55" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58" t="s">
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="65"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="66"/>
-      <c r="U9" s="71" t="s">
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="61" t="s">
+      <c r="V9" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="63" t="s">
+      <c r="W9" s="69" t="s">
         <v>16</v>
       </c>
+      <c r="X9" s="56" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A10" s="70"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
+    <row r="10" spans="1:24" s="1" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A10" s="76"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1339,42 +1354,43 @@
       <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="40" t="s">
+      <c r="K10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="40" t="s">
+      <c r="M10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="N10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="40" t="s">
+      <c r="O10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="59"/>
+      <c r="P10" s="65"/>
       <c r="Q10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="40" t="s">
+      <c r="S10" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="40" t="s">
+      <c r="T10" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="59"/>
-      <c r="V10" s="62"/>
-      <c r="W10" s="63"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="56"/>
     </row>
-    <row r="11" spans="1:23" s="3" customFormat="1" ht="16.5" customHeight="1">
+    <row r="11" spans="1:24" s="3" customFormat="1" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>26</v>
       </c>
@@ -1384,7 +1400,7 @@
       <c r="C11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="27" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="25" t="s">
@@ -1393,7 +1409,7 @@
       <c r="F11" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="27" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="23" t="s">
@@ -1402,187 +1418,189 @@
       <c r="I11" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="46" t="s">
+      <c r="J11" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="46" t="s">
+      <c r="K11" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="46" t="s">
+      <c r="L11" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="46" t="s">
+      <c r="M11" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="46" t="s">
+      <c r="N11" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="46" t="s">
+      <c r="O11" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="47" t="s">
+      <c r="P11" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="33" t="s">
+      <c r="Q11" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="77" t="s">
+      <c r="R11" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="77" t="s">
+      <c r="S11" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="46" t="s">
+      <c r="T11" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="47" t="s">
+      <c r="U11" s="46" t="s">
         <v>49</v>
       </c>
       <c r="V11" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="53" t="s">
         <v>43</v>
       </c>
+      <c r="X11" s="14" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="12" spans="1:24" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="29"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="19"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="29"/>
       <c r="H12" s="18"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="49"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="51"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="48"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="14"/>
+      <c r="W12" s="54"/>
+      <c r="X12" s="14"/>
     </row>
-    <row r="13" spans="1:23" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:24" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
+      <c r="A13" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="50">
+      <c r="B13" s="74"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="49">
         <f t="shared" ref="J13:P13" si="0">SUM(J11:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="50">
+      <c r="L13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="50">
+      <c r="M13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="50">
+      <c r="N13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="50">
+      <c r="O13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="50">
+      <c r="P13" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="50">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="49">
         <f>SUM(R11:R12)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="50">
+      <c r="S13" s="49">
         <f>SUM(S11:S12)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13" s="49">
         <f>SUM(T11:T12)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="50">
+      <c r="U13" s="49">
         <f>SUM(U11:U12)</f>
         <v>0</v>
       </c>
       <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="13"/>
     </row>
-    <row r="14" spans="1:23" ht="15.75">
-      <c r="N14" s="43"/>
-      <c r="O14" s="43"/>
-      <c r="P14" s="43"/>
+    <row r="14" spans="1:24" ht="15.75">
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75">
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
+    <row r="15" spans="1:24" ht="15.75">
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:23" ht="15.75">
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
+    <row r="16" spans="1:24" ht="15.75">
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="14:17" ht="15.75">
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="14:17" ht="15.75">
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="44"/>
+      <c r="P18" s="44"/>
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="14:17" ht="15.75">
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
       <c r="Q19" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:W10"/>
-  <mergeCells count="21">
+  <mergeCells count="22">
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="A4:P4"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A7:P7"/>
-    <mergeCell ref="V9:V10"/>
-    <mergeCell ref="W9:W10"/>
-    <mergeCell ref="Q9:T9"/>
     <mergeCell ref="A13:I13"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="B9:B10"/>
-    <mergeCell ref="U9:U10"/>
+    <mergeCell ref="X9:X10"/>
     <mergeCell ref="A8:P8"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="J9:L9"/>
@@ -1590,6 +1608,10 @@
     <mergeCell ref="P9:P10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="V9:V10"/>
+    <mergeCell ref="W9:W10"/>
+    <mergeCell ref="Q9:T9"/>
+    <mergeCell ref="U9:U10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.ReportData/eFMS.API.ReportData/FormatExcel/TemplateExport/AccountReceivable/CombingBillingByJobVND.xlsx
@@ -573,7 +573,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,18 +614,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -633,9 +627,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="37" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -692,6 +683,39 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -704,9 +728,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -722,9 +743,6 @@
     <xf numFmtId="37" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -743,35 +761,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="37" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -1119,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1133,157 +1130,157 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="16" width="20" style="33" customWidth="1"/>
+    <col min="10" max="16" width="20" style="30" customWidth="1"/>
     <col min="17" max="17" width="35.7109375" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" style="33" customWidth="1"/>
-    <col min="19" max="19" width="13" style="33" customWidth="1"/>
-    <col min="20" max="20" width="20" style="33" customWidth="1"/>
-    <col min="21" max="21" width="22" style="33" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" style="30" customWidth="1"/>
+    <col min="19" max="19" width="13" style="30" customWidth="1"/>
+    <col min="20" max="20" width="20" style="30" customWidth="1"/>
+    <col min="21" max="21" width="22" style="30" customWidth="1"/>
     <col min="22" max="22" width="15.85546875" customWidth="1"/>
     <col min="23" max="23" width="14.42578125" customWidth="1"/>
     <col min="24" max="24" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="20.25">
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="37" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="50.1" customHeight="1">
-      <c r="L2" s="41"/>
-      <c r="M2" s="78" t="s">
+      <c r="L2" s="38"/>
+      <c r="M2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
       <c r="Q2" s="4"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
     </row>
     <row r="4" spans="1:24" ht="20.25">
-      <c r="A4" s="79" t="s">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
       <c r="Q4" s="5"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
     </row>
     <row r="5" spans="1:24" ht="18.75">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="81"/>
-      <c r="M5" s="81"/>
-      <c r="N5" s="81"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="81"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
     </row>
     <row r="6" spans="1:24" ht="19.5">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="82"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="82"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
       <c r="Q6" s="7"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:24" ht="19.5">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="82"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="82"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="82"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
       <c r="Q7" s="7"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:24" ht="13.5" thickBot="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="65"/>
+      <c r="O8" s="65"/>
+      <c r="P8" s="65"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="62" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -1301,50 +1298,50 @@
       <c r="F9" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="G9" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="67"/>
       <c r="I9" s="60"/>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="61" t="s">
+      <c r="K9" s="69"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="62"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="64" t="s">
+      <c r="N9" s="69"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="Q9" s="70" t="s">
+      <c r="Q9" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="71"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="77" t="s">
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="V9" s="67" t="s">
+      <c r="V9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="W9" s="69" t="s">
+      <c r="W9" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="X9" s="56" t="s">
+      <c r="X9" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="1" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A10" s="76"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1354,110 +1351,110 @@
       <c r="I10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P10" s="65"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="39" t="s">
+      <c r="T10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="U10" s="65"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="56"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="64"/>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="80" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="45" t="s">
+      <c r="J11" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="M11" s="45" t="s">
+      <c r="M11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="N11" s="45" t="s">
+      <c r="N11" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="45" t="s">
+      <c r="O11" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="46" t="s">
+      <c r="P11" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="Q11" s="32" t="s">
+      <c r="Q11" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="R11" s="50" t="s">
+      <c r="R11" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="S11" s="50" t="s">
+      <c r="S11" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="T11" s="45" t="s">
+      <c r="T11" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="U11" s="46" t="s">
+      <c r="U11" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="V11" s="26" t="s">
+      <c r="V11" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="W11" s="53" t="s">
+      <c r="W11" s="50" t="s">
         <v>43</v>
       </c>
       <c r="X11" s="14" t="s">
@@ -1468,138 +1465,128 @@
       <c r="A12" s="16"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="28"/>
+      <c r="D12" s="26"/>
       <c r="E12" s="19"/>
       <c r="F12" s="18"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
-      <c r="L12" s="47"/>
-      <c r="M12" s="47"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="47"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="51"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="52"/>
-      <c r="U12" s="48"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="15"/>
-      <c r="W12" s="54"/>
+      <c r="W12" s="51"/>
       <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" ht="36" customHeight="1" thickBot="1">
-      <c r="A13" s="73" t="s">
+      <c r="A13" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="49">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="46">
         <f t="shared" ref="J13:P13" si="0">SUM(J11:J12)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="49">
+      <c r="K13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="49">
+      <c r="L13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="49">
+      <c r="M13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N13" s="49">
+      <c r="N13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" s="49">
+      <c r="O13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P13" s="49">
+      <c r="P13" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="49">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="46">
         <f>SUM(R11:R12)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="46">
         <f>SUM(S11:S12)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="49">
+      <c r="T13" s="46">
         <f>SUM(T11:T12)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="49">
+      <c r="U13" s="46">
         <f>SUM(U11:U12)</f>
         <v>0</v>
       </c>
       <c r="V13" s="13"/>
-      <c r="W13" s="55"/>
+      <c r="W13" s="52"/>
       <c r="X13" s="13"/>
     </row>
     <row r="14" spans="1:24" ht="15.75">
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+      <c r="P14" s="39"/>
       <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:24" ht="15.75">
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="40"/>
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="1:24" ht="15.75">
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="14:17" ht="15.75">
-      <c r="N17" s="43"/>
-      <c r="O17" s="43"/>
-      <c r="P17" s="43"/>
+      <c r="N17" s="40"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="14:17" ht="15.75">
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
       <c r="Q18" s="11"/>
     </row>
     <row r="19" spans="14:17" ht="15.75">
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
       <c r="Q19" s="11"/>
     </row>
   </sheetData>
   <autoFilter ref="A9:W10"/>
   <mergeCells count="22">
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A4:P4"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A7:P7"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="X9:X10"/>
     <mergeCell ref="A8:P8"/>
     <mergeCell ref="G9:I9"/>
@@ -1612,6 +1599,16 @@
     <mergeCell ref="W9:W10"/>
     <mergeCell ref="Q9:T9"/>
     <mergeCell ref="U9:U10"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A7:P7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
